--- a/Sample_Template.xlsx
+++ b/Sample_Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isha.prasad\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mb\rev-tax-calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C032B1C0-A228-4D94-A441-90611C4FE76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08ABE17-6281-4C45-B8CE-3CDBADFE5B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Landing Price (Inc. GST) (A)</t>
-  </si>
-  <si>
     <t>Margin% (B)</t>
   </si>
   <si>
@@ -32,6 +29,9 @@
   </si>
   <si>
     <t>Commission% (D)</t>
+  </si>
+  <si>
+    <t>Landing Price (Exc. GST) (A)</t>
   </si>
 </sst>
 </file>
@@ -412,7 +412,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -424,16 +424,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -453,7 +453,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:D1" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:D1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>